--- a/biology/Botanique/Clintonia_andrewsiana/Clintonia_andrewsiana.xlsx
+++ b/biology/Botanique/Clintonia_andrewsiana/Clintonia_andrewsiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonia andrewsiana est une espèce de plante à fleurs de la famille des liliacées . L'espèce a été découvert par John Milton Bigelow en 1854 et décrit par John Torrey en 1856. La spécifique épithète andrewsiana honneurs Timothy Langdon Andrews (1819-1908), un « monsieur qui assidumentexaminé la botanique » de Californie pendant le milieu du XIXe siècle. L'espèce est communément connue sous le nom de clintonia d'Andrews ou clintonia rouge ,où ce dernier fait référence à la couleur des fleurs. En Californie, il est également connu sous le nom de lys bluebead ou lys bluebead de l' ouest ,  ne pas confondre avec C. borealis , qui est également connu sous le nom de lis bluebead. Le peuple Pomo du nord de la Californie considérait la plante comme toxique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonia andrewsiana est une plante herbacée vivace qui se propage au moyen de rhizomes souterrains . C'est la plus grande espèce végétale du genre, mesurant de 30 à 80 cm (12 à 31 po) de hauteur. Autour de la base de la plante se trouvent 5 ou 6 feuilles vert foncé de forme ovale, chacune de 20 à 35 cm (8 à 14 po) de long et 5 à 15 cm (2 à 6 po) de large. L' inflorescence haute et dressée se compose d'une ombelle terminale avec 10–20 fleurs et jusqu'à trois ombelles latérales avec 2–4 fleurs chacune. Chaque fleur a six tépales roses à violet rougeâtre de 1 à 2 cm (0,4 à 0,8 po) de long et six étamines environ la moitié de la longueur des tépales. Le fruit est une baie bleue ou bleu-noirenviron 1 cm (0,4 po) de diamètre. 
 </t>
